--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLSaoViet.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLSaoViet.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TOP-1" sheetId="28" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="27" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
+    <sheet name="TOP-1" sheetId="28" r:id="rId2"/>
     <sheet name="TongThang" sheetId="25" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,63 @@
   </si>
   <si>
     <t>Thiết bị xuất bán bistech</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>quanlyphuongtien.com.vn,13368</t>
+  </si>
+  <si>
+    <t>Thiết bị lắp KIA Phạm Văn Đồng, Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Thiết bị KIA Phạm Văn Đồng ( không sửa chữa)</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại linh kiện GPS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thiết bi xuất bán BisTech ko nhận BH</t>
+  </si>
+  <si>
+    <t>Thiết bị  hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,28 +1279,46 @@
       <c r="B6" s="37">
         <v>44308</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44309</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>868183037834764</v>
+        <v>868183038582636</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
       <c r="U6" s="74" t="s">
@@ -1261,28 +1336,48 @@
       <c r="B7" s="37">
         <v>44308</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44309</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>868183037838765</v>
+        <v>867717030434667</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
       <c r="U7" s="75"/>
@@ -1295,29 +1390,21 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868183038586025</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="54"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="52"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
@@ -1332,31 +1419,21 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="39">
-        <v>868183038042193</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="2"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
@@ -1371,29 +1448,21 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="39">
-        <v>868183037850299</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="2"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="40"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
@@ -1693,7 +1762,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2194,7 +2263,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2226,7 +2295,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2344,7 +2413,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -2833,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showZeros="0" topLeftCell="I2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,30 +3118,46 @@
       <c r="B6" s="37">
         <v>44308</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44309</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E6" s="39">
-        <v>868183038582636</v>
+        <v>868183037834764</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
       <c r="U6" s="74" t="s">
@@ -3090,28 +3175,46 @@
       <c r="B7" s="37">
         <v>44308</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44309</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E7" s="39">
-        <v>867717030434667</v>
+        <v>868183037838765</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
+      <c r="I7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="M7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
       <c r="U7" s="75"/>
@@ -3124,23 +3227,49 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183038586025</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="52"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
       <c r="U8" s="75"/>
@@ -3153,23 +3282,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="B9" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183038042193</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
       <c r="U9" s="75"/>
@@ -3182,23 +3343,49 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183037850299</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="M10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
       <c r="U10" s="75"/>
@@ -3496,7 +3683,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3528,7 +3715,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3741,7 +3928,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -3965,7 +4152,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3997,7 +4184,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4029,7 +4216,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLSaoViet.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_DLSaoViet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -497,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -619,15 +619,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,15 +643,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,6 +706,30 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,31 +742,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,21 +1051,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1096,46 +1084,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1153,14 +1141,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="56"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1177,100 +1165,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1295,18 +1283,18 @@
       <c r="H6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="49" t="s">
         <v>74</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>73</v>
       </c>
@@ -1320,14 +1308,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="T6" s="61"/>
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1352,7 +1340,7 @@
       <c r="H7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="49" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="1"/>
@@ -1365,7 +1353,7 @@
       <c r="M7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>73</v>
       </c>
@@ -1379,12 +1367,12 @@
         <v>25</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1397,23 +1385,23 @@
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="52"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="40"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1423,26 +1411,26 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="54"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1452,39 +1440,39 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="54"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="61"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1495,25 +1483,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="61"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1524,27 +1512,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="T12" s="61"/>
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="61"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1555,25 +1543,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="65"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1584,25 +1572,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="58"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1614,24 +1602,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="65"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1643,24 +1631,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="65"/>
+      <c r="W16" s="61"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1672,22 +1660,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="65"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="65"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="58"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1707,14 +1695,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1726,26 +1714,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="60" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1770,14 +1758,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1802,14 +1790,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1834,14 +1822,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1861,14 +1849,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1888,14 +1876,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1907,26 +1895,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="60" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1951,14 +1939,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1983,14 +1971,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2015,14 +2003,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2047,14 +2035,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="58"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2079,14 +2067,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2111,14 +2099,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2143,14 +2131,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2175,14 +2163,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="58"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2207,14 +2195,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2239,14 +2227,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2271,14 +2259,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2303,14 +2291,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2330,14 +2318,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2357,14 +2345,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2389,14 +2377,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2421,14 +2409,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2448,14 +2436,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2475,14 +2463,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2511,14 +2499,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="58"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2550,14 +2538,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2589,14 +2577,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="58"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2628,14 +2616,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2670,14 +2658,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="58"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2689,23 +2677,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2714,26 +2702,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="58"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2745,23 +2733,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2773,23 +2761,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="60"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2801,23 +2789,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="60"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2829,23 +2817,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="60"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2857,9 +2845,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,6 +2862,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2885,13 +2880,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2902,21 +2890,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M10"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -2935,46 +2923,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -2992,14 +2980,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="56"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3016,100 +3004,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3132,20 +3120,20 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="49" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="59" t="s">
         <v>71</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>84</v>
       </c>
@@ -3159,14 +3147,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="T6" s="61"/>
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3189,13 +3177,13 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="49" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="59" t="s">
         <v>71</v>
       </c>
       <c r="L7" s="40"/>
@@ -3216,12 +3204,12 @@
         <v>21</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3243,14 +3231,14 @@
       <c r="G8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="52" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="58" t="s">
         <v>71</v>
       </c>
       <c r="L8" s="40"/>
@@ -3271,12 +3259,12 @@
         <v>21</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3303,7 +3291,7 @@
       <c r="H9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="49" t="s">
         <v>77</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -3312,7 +3300,7 @@
       <c r="K9" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="58" t="s">
         <v>71</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -3332,12 +3320,12 @@
         <v>24</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3360,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="49" t="s">
         <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3387,25 +3375,25 @@
         <v>25</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="61"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3416,25 +3404,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="61"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3445,27 +3433,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="T12" s="61"/>
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="61"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -3476,25 +3464,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="65"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -3505,25 +3493,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="58"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3535,24 +3523,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="65"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3564,24 +3552,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="65"/>
+      <c r="W16" s="61"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3593,22 +3581,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="65"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="65"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="58"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3628,14 +3616,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3647,26 +3635,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="60" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3691,14 +3679,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3723,14 +3711,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3755,14 +3743,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3782,14 +3770,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3809,14 +3797,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3828,26 +3816,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="60" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3872,14 +3860,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3904,14 +3892,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -3936,14 +3924,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -3968,14 +3956,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="58"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4000,14 +3988,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4032,14 +4020,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4064,14 +4052,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4096,14 +4084,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="58"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4128,14 +4116,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4160,14 +4148,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4192,14 +4180,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4224,14 +4212,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4251,14 +4239,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4278,14 +4266,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4310,14 +4298,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4342,14 +4330,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4369,14 +4357,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4396,14 +4384,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4432,14 +4420,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="58"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4471,14 +4459,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4510,14 +4498,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="58"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4549,14 +4537,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4591,14 +4579,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="58"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4610,23 +4598,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4635,26 +4623,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="58"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4666,23 +4654,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4694,23 +4682,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="60"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4722,23 +4710,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="60"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4750,23 +4738,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="60"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4778,9 +4766,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4795,6 +4783,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4806,13 +4801,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4823,8 +4811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4856,43 +4844,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4937,307 +4925,497 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183038582636</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="58" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="M6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="74" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>867717030434667</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="75"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037834764</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="75"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183037838765</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="M9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="75"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183038586025</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="75"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="B11" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038042193</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="75"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44309</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183037850299</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="74" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5261,12 +5439,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="75"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5290,12 +5468,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="75"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5320,11 +5498,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5349,11 +5527,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5378,9 +5556,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5432,13 +5610,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5468,7 +5646,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5500,7 +5678,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5613,13 +5791,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -5713,7 +5891,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -5937,7 +6115,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5969,7 +6147,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6001,7 +6179,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6119,7 +6297,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6395,9 +6573,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,10 +6584,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6420,12 +6598,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6451,9 +6629,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,9 +6657,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,9 +6685,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,9 +6713,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6563,9 +6741,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6580,13 +6758,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6598,6 +6769,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
